--- a/library/Library_J.PLAGGENBERG_01.02.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_01.02.20.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">TTGCCCC</t>
@@ -400,7 +400,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L29"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,7 +494,8 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -546,7 +547,8 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -584,7 +586,8 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -622,7 +625,8 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -660,7 +664,8 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -698,7 +703,8 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -736,7 +742,8 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -774,7 +781,8 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -812,7 +820,8 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -850,7 +859,8 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -888,7 +898,8 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -926,7 +937,8 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -964,7 +976,8 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +1015,8 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1040,7 +1054,8 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1078,7 +1093,8 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1132,8 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1171,8 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1192,7 +1210,8 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1230,7 +1249,8 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1268,7 +1288,8 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1306,7 +1327,8 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1366,8 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1405,8 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1420,7 +1444,8 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1483,8 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1522,8 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1534,7 +1561,8 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_01.02.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_01.02.20.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K29"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L2:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,8 +494,7 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -547,8 +546,7 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -586,8 +584,7 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -625,8 +622,7 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -664,8 +660,7 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -703,8 +698,7 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -742,8 +736,7 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -781,8 +774,7 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -820,8 +812,7 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -859,8 +850,7 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -898,8 +888,7 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -937,8 +926,7 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -976,8 +964,7 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1015,8 +1002,7 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1054,8 +1040,7 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1093,8 +1078,7 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1132,8 +1116,7 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1171,8 +1154,7 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1210,8 +1192,7 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L20" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1249,8 +1230,7 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L21" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1288,8 +1268,7 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L22" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1327,8 +1306,7 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L23" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1366,8 +1344,7 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L24" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1405,8 +1382,7 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L25" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1444,8 +1420,7 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L26" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1483,8 +1458,7 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1522,8 +1496,7 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L28" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1561,8 +1534,7 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L29" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_01.02.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_01.02.20.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">TTGCCCC</t>
@@ -400,7 +400,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L2:L29"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,7 +494,8 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -546,7 +547,8 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -584,7 +586,8 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -622,7 +625,8 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -660,7 +664,8 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -698,7 +703,8 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -736,7 +742,8 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -774,7 +781,8 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -812,7 +820,8 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -850,7 +859,8 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -888,7 +898,8 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -926,7 +937,8 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -964,7 +976,8 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +1015,8 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1040,7 +1054,8 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1078,7 +1093,8 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1132,8 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1171,8 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1192,7 +1210,8 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1230,7 +1249,8 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1268,7 +1288,8 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1306,7 +1327,8 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1366,8 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1405,8 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1420,7 +1444,8 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1483,8 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1522,8 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1534,7 +1561,8 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
